--- a/PREINSCRIPCIONES.xlsx
+++ b/PREINSCRIPCIONES.xlsx
@@ -17,6 +17,9 @@
     <sheet name="S.E" sheetId="3" r:id="rId3"/>
     <sheet name="GENERAL" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MAESTRIA!$A$1:$F$333</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
@@ -4209,10 +4212,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="D311" sqref="D311"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D286" sqref="D11:D286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4244,7 +4248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="26.25">
+    <row r="2" spans="1:6" ht="26.25" hidden="1">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -4260,7 +4264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" hidden="1">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -4278,7 +4282,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" hidden="1">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -4294,7 +4298,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" hidden="1">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -4314,7 +4318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" hidden="1">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -4334,7 +4338,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" hidden="1">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -4354,7 +4358,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26.25">
+    <row r="8" spans="1:6" ht="26.25" hidden="1">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -4374,7 +4378,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" hidden="1">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -4394,7 +4398,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" hidden="1">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -4434,7 +4438,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" hidden="1">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -4454,7 +4458,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" hidden="1">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
@@ -4474,7 +4478,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" hidden="1">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -4494,7 +4498,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" hidden="1">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
@@ -4510,7 +4514,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" hidden="1">
       <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
@@ -4530,7 +4534,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" hidden="1">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -4550,7 +4554,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" hidden="1">
       <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
@@ -4568,7 +4572,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" hidden="1">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
@@ -4588,7 +4592,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" hidden="1">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -4606,7 +4610,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1">
+    <row r="21" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
@@ -4626,7 +4630,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1">
+    <row r="22" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
@@ -4646,7 +4650,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1">
+    <row r="23" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>61</v>
       </c>
@@ -4666,7 +4670,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1">
+    <row r="24" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>64</v>
       </c>
@@ -4686,7 +4690,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1">
+    <row r="25" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>66</v>
       </c>
@@ -4706,7 +4710,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1">
+    <row r="26" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>69</v>
       </c>
@@ -4726,7 +4730,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1">
+    <row r="27" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>73</v>
       </c>
@@ -4746,7 +4750,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1">
+    <row r="28" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>76</v>
       </c>
@@ -4766,7 +4770,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1">
+    <row r="29" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>79</v>
       </c>
@@ -4786,7 +4790,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1">
+    <row r="30" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>81</v>
       </c>
@@ -4826,7 +4830,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1">
+    <row r="32" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>86</v>
       </c>
@@ -4846,7 +4850,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1">
+    <row r="33" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>89</v>
       </c>
@@ -4862,7 +4866,7 @@
       </c>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1">
+    <row r="34" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>92</v>
       </c>
@@ -4878,7 +4882,7 @@
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1">
+    <row r="35" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>94</v>
       </c>
@@ -4892,7 +4896,7 @@
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1">
+    <row r="36" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>95</v>
       </c>
@@ -4908,7 +4912,7 @@
       </c>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1">
+    <row r="37" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>97</v>
       </c>
@@ -4922,7 +4926,7 @@
       </c>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1">
+    <row r="38" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>98</v>
       </c>
@@ -4940,7 +4944,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1">
+    <row r="39" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>102</v>
       </c>
@@ -4958,7 +4962,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1">
+    <row r="40" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>105</v>
       </c>
@@ -4978,7 +4982,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1">
+    <row r="41" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>108</v>
       </c>
@@ -4998,7 +5002,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1">
+    <row r="42" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>111</v>
       </c>
@@ -5018,7 +5022,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1">
+    <row r="43" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>114</v>
       </c>
@@ -5038,7 +5042,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1">
+    <row r="44" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>117</v>
       </c>
@@ -5058,7 +5062,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1">
+    <row r="45" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>120</v>
       </c>
@@ -5076,7 +5080,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1">
+    <row r="46" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>123</v>
       </c>
@@ -5096,7 +5100,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1">
+    <row r="47" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>126</v>
       </c>
@@ -5116,7 +5120,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1">
+    <row r="48" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>129</v>
       </c>
@@ -5136,7 +5140,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1">
+    <row r="49" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>132</v>
       </c>
@@ -5156,7 +5160,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1">
+    <row r="50" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>135</v>
       </c>
@@ -5176,7 +5180,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1">
+    <row r="51" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>138</v>
       </c>
@@ -5194,7 +5198,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1">
+    <row r="52" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>141</v>
       </c>
@@ -5214,7 +5218,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1">
+    <row r="53" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>144</v>
       </c>
@@ -5234,7 +5238,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1">
+    <row r="54" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>147</v>
       </c>
@@ -5254,7 +5258,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1">
+    <row r="55" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>150</v>
       </c>
@@ -5274,7 +5278,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1">
+    <row r="56" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>153</v>
       </c>
@@ -5294,7 +5298,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1">
+    <row r="57" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>29</v>
       </c>
@@ -5314,7 +5318,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1">
+    <row r="58" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>155</v>
       </c>
@@ -5334,7 +5338,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1">
+    <row r="59" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>158</v>
       </c>
@@ -5348,7 +5352,7 @@
       </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1">
+    <row r="60" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>159</v>
       </c>
@@ -5368,7 +5372,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1">
+    <row r="61" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>162</v>
       </c>
@@ -5388,7 +5392,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1">
+    <row r="62" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>164</v>
       </c>
@@ -5408,7 +5412,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1">
+    <row r="63" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>167</v>
       </c>
@@ -5428,7 +5432,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75" customHeight="1">
+    <row r="64" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>170</v>
       </c>
@@ -5448,7 +5452,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1">
+    <row r="65" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>172</v>
       </c>
@@ -5468,7 +5472,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1">
+    <row r="66" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>174</v>
       </c>
@@ -5488,7 +5492,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75" customHeight="1">
+    <row r="67" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>176</v>
       </c>
@@ -5508,7 +5512,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" customHeight="1">
+    <row r="68" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>179</v>
       </c>
@@ -5526,7 +5530,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" customHeight="1">
+    <row r="69" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>181</v>
       </c>
@@ -5546,7 +5550,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1">
+    <row r="70" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>184</v>
       </c>
@@ -5566,7 +5570,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1">
+    <row r="71" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>187</v>
       </c>
@@ -5586,7 +5590,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75" customHeight="1">
+    <row r="72" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>190</v>
       </c>
@@ -5606,7 +5610,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75" customHeight="1">
+    <row r="73" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>193</v>
       </c>
@@ -5626,7 +5630,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1">
+    <row r="74" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>196</v>
       </c>
@@ -5644,7 +5648,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" customHeight="1">
+    <row r="75" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>199</v>
       </c>
@@ -5664,7 +5668,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.75" customHeight="1">
+    <row r="76" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>202</v>
       </c>
@@ -5684,7 +5688,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.75" customHeight="1">
+    <row r="77" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>204</v>
       </c>
@@ -5704,7 +5708,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.75" customHeight="1">
+    <row r="78" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>207</v>
       </c>
@@ -5724,7 +5728,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.75" customHeight="1">
+    <row r="79" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>210</v>
       </c>
@@ -5744,7 +5748,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.75" customHeight="1">
+    <row r="80" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>213</v>
       </c>
@@ -5764,7 +5768,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.75" customHeight="1">
+    <row r="81" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A81" s="2" t="s">
         <v>216</v>
       </c>
@@ -5784,7 +5788,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.75" customHeight="1">
+    <row r="82" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>218</v>
       </c>
@@ -5802,7 +5806,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.75" customHeight="1">
+    <row r="83" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>221</v>
       </c>
@@ -5842,7 +5846,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.75" customHeight="1">
+    <row r="85" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A85" s="2" t="s">
         <v>227</v>
       </c>
@@ -5862,7 +5866,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75" customHeight="1">
+    <row r="86" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>230</v>
       </c>
@@ -5882,7 +5886,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75" customHeight="1">
+    <row r="87" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>233</v>
       </c>
@@ -5900,7 +5904,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.75" customHeight="1">
+    <row r="88" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>235</v>
       </c>
@@ -5920,7 +5924,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.75" customHeight="1">
+    <row r="89" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>238</v>
       </c>
@@ -5940,7 +5944,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.75" customHeight="1">
+    <row r="90" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>240</v>
       </c>
@@ -5980,7 +5984,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.75" customHeight="1">
+    <row r="92" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A92" s="2" t="s">
         <v>245</v>
       </c>
@@ -5998,7 +6002,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15.75" customHeight="1">
+    <row r="93" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A93" s="2" t="s">
         <v>248</v>
       </c>
@@ -6016,7 +6020,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.75" customHeight="1">
+    <row r="94" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A94" s="2" t="s">
         <v>251</v>
       </c>
@@ -6036,7 +6040,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.75" customHeight="1">
+    <row r="95" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A95" s="2" t="s">
         <v>253</v>
       </c>
@@ -6056,7 +6060,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.75" customHeight="1">
+    <row r="96" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A96" s="2" t="s">
         <v>256</v>
       </c>
@@ -6076,7 +6080,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" customHeight="1">
+    <row r="97" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A97" s="2" t="s">
         <v>259</v>
       </c>
@@ -6096,7 +6100,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75" customHeight="1">
+    <row r="98" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A98" s="2" t="s">
         <v>262</v>
       </c>
@@ -6114,7 +6118,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75" customHeight="1">
+    <row r="99" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A99" s="2" t="s">
         <v>264</v>
       </c>
@@ -6194,7 +6198,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" customHeight="1">
+    <row r="103" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A103" s="2" t="s">
         <v>277</v>
       </c>
@@ -6214,7 +6218,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75" customHeight="1">
+    <row r="104" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A104" s="2" t="s">
         <v>279</v>
       </c>
@@ -6234,7 +6238,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75" customHeight="1">
+    <row r="105" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A105" s="2" t="s">
         <v>282</v>
       </c>
@@ -6252,7 +6256,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75" customHeight="1">
+    <row r="106" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A106" s="2" t="s">
         <v>285</v>
       </c>
@@ -6272,7 +6276,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.75" customHeight="1">
+    <row r="107" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A107" s="2" t="s">
         <v>287</v>
       </c>
@@ -6292,7 +6296,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75" customHeight="1">
+    <row r="108" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A108" s="2" t="s">
         <v>290</v>
       </c>
@@ -6310,7 +6314,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15.75" customHeight="1">
+    <row r="109" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A109" s="2" t="s">
         <v>292</v>
       </c>
@@ -6330,7 +6334,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.75" customHeight="1">
+    <row r="110" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A110" s="2" t="s">
         <v>296</v>
       </c>
@@ -6350,7 +6354,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75" customHeight="1">
+    <row r="111" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A111" s="2" t="s">
         <v>299</v>
       </c>
@@ -6370,7 +6374,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15.75" customHeight="1">
+    <row r="112" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A112" s="2" t="s">
         <v>302</v>
       </c>
@@ -6410,7 +6414,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15.75" customHeight="1">
+    <row r="114" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A114" s="2" t="s">
         <v>306</v>
       </c>
@@ -6430,7 +6434,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15.75" customHeight="1">
+    <row r="115" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A115" s="2" t="s">
         <v>309</v>
       </c>
@@ -6446,7 +6450,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15.75" customHeight="1">
+    <row r="116" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A116" s="2" t="s">
         <v>312</v>
       </c>
@@ -6464,7 +6468,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15.75" customHeight="1">
+    <row r="117" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A117" s="2" t="s">
         <v>316</v>
       </c>
@@ -6484,7 +6488,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15.75" customHeight="1">
+    <row r="118" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A118" s="2" t="s">
         <v>319</v>
       </c>
@@ -6504,7 +6508,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15.75" customHeight="1">
+    <row r="119" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A119" s="2" t="s">
         <v>323</v>
       </c>
@@ -6524,7 +6528,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15.75" customHeight="1">
+    <row r="120" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A120" s="2" t="s">
         <v>326</v>
       </c>
@@ -6542,7 +6546,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15.75" customHeight="1">
+    <row r="121" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A121" s="2" t="s">
         <v>329</v>
       </c>
@@ -6556,7 +6560,7 @@
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:7" ht="15.75" customHeight="1">
+    <row r="122" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A122" s="2" t="s">
         <v>331</v>
       </c>
@@ -6572,7 +6576,7 @@
       </c>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:7" ht="15.75" customHeight="1">
+    <row r="123" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A123" s="2" t="s">
         <v>245</v>
       </c>
@@ -6588,7 +6592,7 @@
       </c>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:7" ht="15.75" customHeight="1">
+    <row r="124" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A124" s="2" t="s">
         <v>129</v>
       </c>
@@ -6602,7 +6606,7 @@
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:7" ht="15.75" customHeight="1">
+    <row r="125" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A125" s="2" t="s">
         <v>335</v>
       </c>
@@ -6622,7 +6626,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15.75" customHeight="1">
+    <row r="126" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A126" s="2" t="s">
         <v>338</v>
       </c>
@@ -6643,7 +6647,7 @@
       </c>
       <c r="G126" s="6"/>
     </row>
-    <row r="127" spans="1:7" ht="15.75" customHeight="1">
+    <row r="127" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A127" s="2" t="s">
         <v>341</v>
       </c>
@@ -6663,7 +6667,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15.75" customHeight="1">
+    <row r="128" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A128" s="2" t="s">
         <v>343</v>
       </c>
@@ -6683,7 +6687,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15.75" customHeight="1">
+    <row r="129" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A129" s="2" t="s">
         <v>345</v>
       </c>
@@ -6703,7 +6707,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15.75" customHeight="1">
+    <row r="130" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A130" s="2" t="s">
         <v>348</v>
       </c>
@@ -6723,7 +6727,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15.75" customHeight="1">
+    <row r="131" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A131" s="2" t="s">
         <v>350</v>
       </c>
@@ -6743,7 +6747,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15.75" customHeight="1">
+    <row r="132" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A132" s="2" t="s">
         <v>352</v>
       </c>
@@ -6763,7 +6767,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15.75" customHeight="1">
+    <row r="133" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A133" s="7" t="s">
         <v>355</v>
       </c>
@@ -6781,7 +6785,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15.75" customHeight="1">
+    <row r="134" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A134" s="9" t="s">
         <v>357</v>
       </c>
@@ -6799,7 +6803,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15.75" customHeight="1">
+    <row r="135" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A135" s="7" t="s">
         <v>360</v>
       </c>
@@ -6817,7 +6821,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="15.75" customHeight="1">
+    <row r="136" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A136" s="7" t="s">
         <v>362</v>
       </c>
@@ -6834,7 +6838,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="15.75" customHeight="1">
+    <row r="137" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A137" s="9" t="s">
         <v>364</v>
       </c>
@@ -6851,7 +6855,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15.75" customHeight="1">
+    <row r="138" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A138" s="9" t="s">
         <v>367</v>
       </c>
@@ -6868,7 +6872,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="15.75" customHeight="1">
+    <row r="139" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A139" s="9" t="s">
         <v>369</v>
       </c>
@@ -6885,7 +6889,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="15.75" customHeight="1">
+    <row r="140" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A140" s="7" t="s">
         <v>372</v>
       </c>
@@ -6902,7 +6906,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="15.75" customHeight="1">
+    <row r="141" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A141" s="7" t="s">
         <v>375</v>
       </c>
@@ -6919,7 +6923,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="15.75" customHeight="1">
+    <row r="142" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A142" s="7" t="s">
         <v>377</v>
       </c>
@@ -6936,7 +6940,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15.75" customHeight="1">
+    <row r="143" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A143" s="9" t="s">
         <v>380</v>
       </c>
@@ -6953,7 +6957,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="15.75" customHeight="1">
+    <row r="144" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A144" s="9" t="s">
         <v>383</v>
       </c>
@@ -6970,7 +6974,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="15.75" customHeight="1">
+    <row r="145" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A145" s="9" t="s">
         <v>385</v>
       </c>
@@ -6987,7 +6991,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15.75" customHeight="1">
+    <row r="146" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A146" s="9" t="s">
         <v>387</v>
       </c>
@@ -7004,7 +7008,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="15.75" customHeight="1">
+    <row r="147" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A147" s="7" t="s">
         <v>390</v>
       </c>
@@ -7021,7 +7025,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="15.75" customHeight="1">
+    <row r="148" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A148" s="12" t="s">
         <v>393</v>
       </c>
@@ -7055,7 +7059,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="15.75" customHeight="1">
+    <row r="150" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A150" s="7" t="s">
         <v>396</v>
       </c>
@@ -7072,7 +7076,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="15.75" customHeight="1">
+    <row r="151" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A151" s="7" t="s">
         <v>398</v>
       </c>
@@ -7089,7 +7093,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="15.75" customHeight="1">
+    <row r="152" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A152" s="12" t="s">
         <v>402</v>
       </c>
@@ -7106,7 +7110,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="15.75" customHeight="1">
+    <row r="153" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A153" s="9" t="s">
         <v>405</v>
       </c>
@@ -7123,7 +7127,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="15.75" customHeight="1">
+    <row r="154" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A154" s="7" t="s">
         <v>407</v>
       </c>
@@ -7140,7 +7144,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="15.75" customHeight="1">
+    <row r="155" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A155" s="7" t="s">
         <v>410</v>
       </c>
@@ -7157,7 +7161,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="15.75" customHeight="1">
+    <row r="156" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A156" s="7" t="s">
         <v>413</v>
       </c>
@@ -7174,7 +7178,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="15.75" customHeight="1">
+    <row r="157" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A157" s="7" t="s">
         <v>81</v>
       </c>
@@ -7191,7 +7195,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="15.75" customHeight="1">
+    <row r="158" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A158" s="11" t="s">
         <v>415</v>
       </c>
@@ -7208,7 +7212,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15.75" customHeight="1">
+    <row r="159" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A159" s="7" t="s">
         <v>418</v>
       </c>
@@ -7225,7 +7229,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="15.75" customHeight="1">
+    <row r="160" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A160" s="12" t="s">
         <v>420</v>
       </c>
@@ -7242,7 +7246,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="15.75" customHeight="1">
+    <row r="161" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="B161" s="12">
         <v>42549352</v>
       </c>
@@ -7256,7 +7260,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="15.75" customHeight="1">
+    <row r="162" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A162" s="7" t="s">
         <v>425</v>
       </c>
@@ -7273,7 +7277,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15.75" customHeight="1">
+    <row r="163" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A163" s="7" t="s">
         <v>427</v>
       </c>
@@ -7290,7 +7294,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15.75" customHeight="1">
+    <row r="164" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A164" s="7" t="s">
         <v>429</v>
       </c>
@@ -7307,7 +7311,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15.75" customHeight="1">
+    <row r="165" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A165" s="7" t="s">
         <v>431</v>
       </c>
@@ -7324,7 +7328,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="15.75" customHeight="1">
+    <row r="166" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A166" s="7" t="s">
         <v>434</v>
       </c>
@@ -7338,7 +7342,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="15.75" customHeight="1">
+    <row r="167" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A167" s="7" t="s">
         <v>437</v>
       </c>
@@ -7355,12 +7359,12 @@
         <v>439</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="15.75" customHeight="1">
+    <row r="168" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A168" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="15.75" customHeight="1">
+    <row r="169" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A169" s="7" t="s">
         <v>440</v>
       </c>
@@ -7377,7 +7381,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15.75" customHeight="1">
+    <row r="170" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A170" s="7" t="s">
         <v>443</v>
       </c>
@@ -7394,7 +7398,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15.75" customHeight="1">
+    <row r="171" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A171" s="7" t="s">
         <v>446</v>
       </c>
@@ -7411,7 +7415,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15.75" customHeight="1">
+    <row r="172" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A172" s="7" t="s">
         <v>449</v>
       </c>
@@ -7428,7 +7432,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="15.75" customHeight="1">
+    <row r="173" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A173" s="7" t="s">
         <v>451</v>
       </c>
@@ -7445,7 +7449,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="15.75" customHeight="1">
+    <row r="174" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A174" s="7" t="s">
         <v>454</v>
       </c>
@@ -7462,7 +7466,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="15.75" customHeight="1">
+    <row r="175" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A175" s="7" t="s">
         <v>457</v>
       </c>
@@ -7479,7 +7483,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="15.75" customHeight="1">
+    <row r="176" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A176" s="18" t="s">
         <v>460</v>
       </c>
@@ -7496,7 +7500,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="15.75" customHeight="1">
+    <row r="177" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A177" s="18" t="s">
         <v>463</v>
       </c>
@@ -7510,7 +7514,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="15.75" customHeight="1">
+    <row r="178" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A178" s="18" t="s">
         <v>465</v>
       </c>
@@ -7527,7 +7531,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="15.75" customHeight="1">
+    <row r="179" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A179" s="18" t="s">
         <v>468</v>
       </c>
@@ -7544,7 +7548,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="15.75" customHeight="1">
+    <row r="180" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A180" s="18" t="s">
         <v>471</v>
       </c>
@@ -7555,7 +7559,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="15.75" customHeight="1">
+    <row r="181" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A181" s="7" t="s">
         <v>474</v>
       </c>
@@ -7572,7 +7576,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="15.75" customHeight="1">
+    <row r="182" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A182" s="18" t="s">
         <v>477</v>
       </c>
@@ -7606,7 +7610,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="15.75" customHeight="1">
+    <row r="184" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A184" s="19" t="s">
         <v>482</v>
       </c>
@@ -7623,7 +7627,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="15.75" customHeight="1">
+    <row r="185" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A185" s="13" t="s">
         <v>485</v>
       </c>
@@ -7640,7 +7644,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="15.75" customHeight="1">
+    <row r="186" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A186" s="13" t="s">
         <v>489</v>
       </c>
@@ -7657,7 +7661,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="15.75" customHeight="1">
+    <row r="187" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A187" s="16" t="s">
         <v>492</v>
       </c>
@@ -7671,7 +7675,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="15.75" customHeight="1">
+    <row r="188" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A188" s="16" t="s">
         <v>494</v>
       </c>
@@ -7688,7 +7692,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="15.75" customHeight="1">
+    <row r="189" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A189" s="22" t="s">
         <v>498</v>
       </c>
@@ -7705,7 +7709,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="15.75" customHeight="1">
+    <row r="190" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A190" s="7" t="s">
         <v>500</v>
       </c>
@@ -7722,7 +7726,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="15.75" customHeight="1">
+    <row r="191" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A191" s="16" t="s">
         <v>503</v>
       </c>
@@ -7739,7 +7743,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="15.75" customHeight="1">
+    <row r="192" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A192" s="16" t="s">
         <v>506</v>
       </c>
@@ -7756,7 +7760,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="15.75" customHeight="1">
+    <row r="193" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A193" s="24" t="s">
         <v>509</v>
       </c>
@@ -7773,7 +7777,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="15.75" customHeight="1">
+    <row r="194" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A194" s="16" t="s">
         <v>511</v>
       </c>
@@ -7807,7 +7811,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="15.75" customHeight="1">
+    <row r="196" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A196" s="16" t="s">
         <v>516</v>
       </c>
@@ -7824,7 +7828,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="15.75" customHeight="1">
+    <row r="197" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A197" s="16" t="s">
         <v>519</v>
       </c>
@@ -7841,7 +7845,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="15.75" customHeight="1">
+    <row r="198" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A198" s="16" t="s">
         <v>521</v>
       </c>
@@ -7858,7 +7862,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="15.75" customHeight="1">
+    <row r="199" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A199" s="16" t="s">
         <v>524</v>
       </c>
@@ -7872,7 +7876,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="15.75" customHeight="1">
+    <row r="200" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A200" s="16" t="s">
         <v>527</v>
       </c>
@@ -7889,7 +7893,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="15.75" customHeight="1">
+    <row r="201" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A201" s="16" t="s">
         <v>530</v>
       </c>
@@ -7906,7 +7910,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="15.75" customHeight="1">
+    <row r="202" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A202" s="16" t="s">
         <v>533</v>
       </c>
@@ -7923,7 +7927,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="15.75" customHeight="1">
+    <row r="203" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A203" s="16" t="s">
         <v>536</v>
       </c>
@@ -7940,7 +7944,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="15.75" customHeight="1">
+    <row r="204" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A204" s="16" t="s">
         <v>539</v>
       </c>
@@ -7957,7 +7961,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="15.75" customHeight="1">
+    <row r="205" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A205" s="16" t="s">
         <v>542</v>
       </c>
@@ -7974,7 +7978,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="15.75" customHeight="1">
+    <row r="206" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A206" s="16" t="s">
         <v>545</v>
       </c>
@@ -7991,7 +7995,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="15.75" customHeight="1">
+    <row r="207" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A207" s="16" t="s">
         <v>548</v>
       </c>
@@ -8008,7 +8012,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="15.75" customHeight="1">
+    <row r="208" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A208" s="16" t="s">
         <v>550</v>
       </c>
@@ -8025,7 +8029,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="15.75" customHeight="1">
+    <row r="209" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A209" s="16" t="s">
         <v>553</v>
       </c>
@@ -8042,7 +8046,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="15.75" customHeight="1">
+    <row r="210" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A210" s="23" t="s">
         <v>556</v>
       </c>
@@ -8056,7 +8060,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="15.75" customHeight="1">
+    <row r="211" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A211" s="23" t="s">
         <v>559</v>
       </c>
@@ -8073,7 +8077,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="15.75" customHeight="1">
+    <row r="212" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A212" s="23" t="s">
         <v>561</v>
       </c>
@@ -8090,7 +8094,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="15.75" customHeight="1">
+    <row r="213" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A213" s="23" t="s">
         <v>564</v>
       </c>
@@ -8107,7 +8111,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="15.75" customHeight="1">
+    <row r="214" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A214" s="23" t="s">
         <v>566</v>
       </c>
@@ -8124,7 +8128,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="15.75" customHeight="1">
+    <row r="215" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A215" s="23" t="s">
         <v>569</v>
       </c>
@@ -8141,7 +8145,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="15.75" customHeight="1">
+    <row r="216" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A216" s="23" t="s">
         <v>572</v>
       </c>
@@ -8158,7 +8162,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="15.75" customHeight="1">
+    <row r="217" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A217" s="23" t="s">
         <v>575</v>
       </c>
@@ -8175,7 +8179,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="15.75" customHeight="1">
+    <row r="218" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A218" s="24" t="s">
         <v>578</v>
       </c>
@@ -8192,7 +8196,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="15.75" customHeight="1">
+    <row r="219" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A219" s="23" t="s">
         <v>581</v>
       </c>
@@ -8206,7 +8210,7 @@
         <v>920356417</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="15.75" customHeight="1">
+    <row r="220" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A220" s="23" t="s">
         <v>583</v>
       </c>
@@ -8223,7 +8227,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="15.75" customHeight="1">
+    <row r="221" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A221" s="23" t="s">
         <v>585</v>
       </c>
@@ -8240,7 +8244,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="15.75" customHeight="1">
+    <row r="222" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A222" s="23" t="s">
         <v>587</v>
       </c>
@@ -8257,7 +8261,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="15.75" customHeight="1">
+    <row r="223" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A223" s="23" t="s">
         <v>590</v>
       </c>
@@ -8274,7 +8278,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="15.75" customHeight="1">
+    <row r="224" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A224" s="23" t="s">
         <v>592</v>
       </c>
@@ -8291,7 +8295,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="15.75" customHeight="1">
+    <row r="225" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A225" s="23" t="s">
         <v>595</v>
       </c>
@@ -8308,7 +8312,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="15.75" customHeight="1">
+    <row r="226" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A226" s="23" t="s">
         <v>598</v>
       </c>
@@ -8325,7 +8329,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="15.75" customHeight="1">
+    <row r="227" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A227" s="23" t="s">
         <v>601</v>
       </c>
@@ -8342,7 +8346,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="15.75" customHeight="1">
+    <row r="228" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A228" s="23" t="s">
         <v>601</v>
       </c>
@@ -8359,7 +8363,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="15.75" customHeight="1">
+    <row r="229" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A229" s="23" t="s">
         <v>605</v>
       </c>
@@ -8376,7 +8380,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="15.75" customHeight="1">
+    <row r="230" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A230" s="23" t="s">
         <v>608</v>
       </c>
@@ -8393,7 +8397,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="15.75" customHeight="1">
+    <row r="231" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A231" s="23" t="s">
         <v>611</v>
       </c>
@@ -8410,7 +8414,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="15.75" customHeight="1">
+    <row r="232" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A232" s="23" t="s">
         <v>614</v>
       </c>
@@ -8427,7 +8431,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="15.75" customHeight="1">
+    <row r="233" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A233" s="23" t="s">
         <v>617</v>
       </c>
@@ -8444,7 +8448,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="15.75" customHeight="1">
+    <row r="234" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A234" s="23" t="s">
         <v>620</v>
       </c>
@@ -8461,7 +8465,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="15.75" customHeight="1">
+    <row r="235" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A235" s="23" t="s">
         <v>623</v>
       </c>
@@ -8478,7 +8482,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="15.75" customHeight="1">
+    <row r="236" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A236" s="23" t="s">
         <v>626</v>
       </c>
@@ -8495,7 +8499,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="15.75" customHeight="1">
+    <row r="237" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A237" s="23" t="s">
         <v>628</v>
       </c>
@@ -8509,7 +8513,7 @@
         <v>910312681</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="15.75" customHeight="1">
+    <row r="238" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A238" s="23" t="s">
         <v>630</v>
       </c>
@@ -8526,7 +8530,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="15.75" customHeight="1">
+    <row r="239" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A239" s="23" t="s">
         <v>633</v>
       </c>
@@ -8543,7 +8547,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="15.75" customHeight="1">
+    <row r="240" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A240" s="23" t="s">
         <v>635</v>
       </c>
@@ -8560,7 +8564,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="15.75" customHeight="1">
+    <row r="241" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A241" s="23" t="s">
         <v>638</v>
       </c>
@@ -8577,7 +8581,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="15.75" customHeight="1">
+    <row r="242" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A242" s="23" t="s">
         <v>641</v>
       </c>
@@ -8594,7 +8598,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="15.75" customHeight="1">
+    <row r="243" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A243" s="23" t="s">
         <v>644</v>
       </c>
@@ -8611,7 +8615,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="15.75" customHeight="1">
+    <row r="244" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A244" s="23" t="s">
         <v>646</v>
       </c>
@@ -8628,7 +8632,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="15.75" customHeight="1">
+    <row r="245" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A245" s="23" t="s">
         <v>649</v>
       </c>
@@ -8645,7 +8649,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="15.75" customHeight="1">
+    <row r="246" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A246" s="23" t="s">
         <v>652</v>
       </c>
@@ -8662,7 +8666,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="15.75" customHeight="1">
+    <row r="247" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A247" s="23" t="s">
         <v>654</v>
       </c>
@@ -8679,7 +8683,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="15.75" customHeight="1">
+    <row r="248" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A248" s="23" t="s">
         <v>656</v>
       </c>
@@ -8687,7 +8691,7 @@
         <v>17633304</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="15.75" customHeight="1">
+    <row r="249" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A249" s="23" t="s">
         <v>657</v>
       </c>
@@ -8699,7 +8703,7 @@
         <v>971565477</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="15.75" customHeight="1">
+    <row r="250" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A250" s="23" t="s">
         <v>658</v>
       </c>
@@ -8716,7 +8720,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="15.75" customHeight="1">
+    <row r="251" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A251" s="23" t="s">
         <v>661</v>
       </c>
@@ -8733,7 +8737,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="15.75" customHeight="1">
+    <row r="252" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A252" s="23" t="s">
         <v>663</v>
       </c>
@@ -8747,7 +8751,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="15.75" customHeight="1">
+    <row r="253" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A253" s="23" t="s">
         <v>666</v>
       </c>
@@ -8764,7 +8768,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="15.75" customHeight="1">
+    <row r="254" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A254" s="23" t="s">
         <v>669</v>
       </c>
@@ -8781,7 +8785,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="15.75" customHeight="1">
+    <row r="255" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A255" s="23" t="s">
         <v>672</v>
       </c>
@@ -8798,7 +8802,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="15.75" customHeight="1">
+    <row r="256" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A256" s="23" t="s">
         <v>674</v>
       </c>
@@ -8815,7 +8819,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="15.75" customHeight="1">
+    <row r="257" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A257" s="24" t="s">
         <v>678</v>
       </c>
@@ -8832,7 +8836,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="15.75" customHeight="1">
+    <row r="258" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A258" s="23" t="s">
         <v>681</v>
       </c>
@@ -8846,7 +8850,7 @@
         <v>906964368</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="15.75" customHeight="1">
+    <row r="259" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A259" s="24" t="s">
         <v>682</v>
       </c>
@@ -8863,7 +8867,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="15.75" customHeight="1">
+    <row r="260" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A260" s="24" t="s">
         <v>684</v>
       </c>
@@ -8880,7 +8884,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="15.75" customHeight="1">
+    <row r="261" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A261" s="23" t="s">
         <v>686</v>
       </c>
@@ -8897,7 +8901,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="15.75" customHeight="1">
+    <row r="262" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A262" s="24" t="s">
         <v>689</v>
       </c>
@@ -8914,7 +8918,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="15.75" customHeight="1">
+    <row r="263" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A263" s="23" t="s">
         <v>443</v>
       </c>
@@ -8942,7 +8946,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="15.75" customHeight="1">
+    <row r="265" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A265" s="23" t="s">
         <v>694</v>
       </c>
@@ -8959,7 +8963,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="15.75" customHeight="1">
+    <row r="266" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A266" s="23" t="s">
         <v>697</v>
       </c>
@@ -8976,7 +8980,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="15.75" customHeight="1">
+    <row r="267" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A267" s="23" t="s">
         <v>700</v>
       </c>
@@ -8993,7 +8997,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="15.75" customHeight="1">
+    <row r="268" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A268" s="23" t="s">
         <v>703</v>
       </c>
@@ -9010,7 +9014,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="15.75" customHeight="1">
+    <row r="269" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A269" s="23" t="s">
         <v>706</v>
       </c>
@@ -9027,7 +9031,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="15.75" customHeight="1">
+    <row r="270" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A270" s="24" t="s">
         <v>709</v>
       </c>
@@ -9041,7 +9045,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="15.75" customHeight="1">
+    <row r="271" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A271" s="23" t="s">
         <v>712</v>
       </c>
@@ -9058,7 +9062,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="15.75" customHeight="1">
+    <row r="272" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A272" s="23" t="s">
         <v>715</v>
       </c>
@@ -9072,7 +9076,7 @@
         <v>957927555</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="15.75" customHeight="1">
+    <row r="273" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A273" s="23" t="s">
         <v>717</v>
       </c>
@@ -9089,7 +9093,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="15.75" customHeight="1">
+    <row r="274" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A274" s="23" t="s">
         <v>720</v>
       </c>
@@ -9106,7 +9110,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="15.75" customHeight="1">
+    <row r="275" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A275" s="23" t="s">
         <v>723</v>
       </c>
@@ -9123,7 +9127,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="15.75" customHeight="1">
+    <row r="276" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A276" s="24" t="s">
         <v>726</v>
       </c>
@@ -9140,7 +9144,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="15.75" customHeight="1">
+    <row r="277" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A277" s="24" t="s">
         <v>729</v>
       </c>
@@ -9157,7 +9161,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="15.75" customHeight="1">
+    <row r="278" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A278" s="24" t="s">
         <v>732</v>
       </c>
@@ -9174,7 +9178,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="15.75" customHeight="1">
+    <row r="279" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A279" s="34" t="s">
         <v>735</v>
       </c>
@@ -9191,7 +9195,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="15.75" customHeight="1">
+    <row r="280" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A280" s="23" t="s">
         <v>706</v>
       </c>
@@ -9208,7 +9212,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="15.75" customHeight="1">
+    <row r="281" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A281" s="23" t="s">
         <v>738</v>
       </c>
@@ -9225,7 +9229,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="15.75" customHeight="1">
+    <row r="282" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A282" s="23" t="s">
         <v>740</v>
       </c>
@@ -9242,7 +9246,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="15.75" customHeight="1">
+    <row r="283" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A283" s="23" t="s">
         <v>743</v>
       </c>
@@ -9259,7 +9263,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="15.75" customHeight="1">
+    <row r="284" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A284" s="23" t="s">
         <v>745</v>
       </c>
@@ -9267,7 +9271,7 @@
         <v>43532929</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="15.75" customHeight="1">
+    <row r="285" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A285" s="23" t="s">
         <v>746</v>
       </c>
@@ -9301,7 +9305,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="15.75" customHeight="1">
+    <row r="287" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A287" s="23" t="s">
         <v>752</v>
       </c>
@@ -9318,7 +9322,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="15.75" customHeight="1">
+    <row r="288" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A288" s="23" t="s">
         <v>755</v>
       </c>
@@ -9335,7 +9339,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="15.75" customHeight="1">
+    <row r="289" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A289" s="23" t="s">
         <v>756</v>
       </c>
@@ -9346,7 +9350,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="15.75" customHeight="1">
+    <row r="290" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A290" s="23" t="s">
         <v>758</v>
       </c>
@@ -9357,7 +9361,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="15.75" customHeight="1">
+    <row r="291" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A291" s="23" t="s">
         <v>760</v>
       </c>
@@ -9371,7 +9375,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="15.75" customHeight="1">
+    <row r="292" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A292" s="23" t="s">
         <v>763</v>
       </c>
@@ -9388,7 +9392,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="15.75" customHeight="1">
+    <row r="293" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A293" s="24" t="s">
         <v>766</v>
       </c>
@@ -9405,7 +9409,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="15.75" customHeight="1">
+    <row r="294" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A294" s="23" t="s">
         <v>769</v>
       </c>
@@ -9422,7 +9426,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="15.75" customHeight="1">
+    <row r="295" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A295" s="23" t="s">
         <v>772</v>
       </c>
@@ -9439,7 +9443,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="15.75" customHeight="1">
+    <row r="296" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A296" s="24" t="s">
         <v>775</v>
       </c>
@@ -9456,7 +9460,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="15.75" customHeight="1">
+    <row r="297" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A297" s="23" t="s">
         <v>778</v>
       </c>
@@ -9467,7 +9471,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="15.75" customHeight="1">
+    <row r="298" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A298" s="23" t="s">
         <v>779</v>
       </c>
@@ -9479,7 +9483,7 @@
       </c>
       <c r="E298" s="23"/>
     </row>
-    <row r="299" spans="1:6" ht="15.75" customHeight="1">
+    <row r="299" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A299" s="23" t="s">
         <v>781</v>
       </c>
@@ -9496,7 +9500,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="15.75" customHeight="1">
+    <row r="300" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A300" s="23" t="s">
         <v>784</v>
       </c>
@@ -9513,7 +9517,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="15.75" customHeight="1">
+    <row r="301" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A301" s="23" t="s">
         <v>787</v>
       </c>
@@ -9530,7 +9534,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="15.75" customHeight="1">
+    <row r="302" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A302" s="23" t="s">
         <v>454</v>
       </c>
@@ -9544,7 +9548,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="15.75" customHeight="1">
+    <row r="303" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A303" s="23" t="s">
         <v>791</v>
       </c>
@@ -9561,7 +9565,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="15.75" customHeight="1">
+    <row r="304" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A304" s="23" t="s">
         <v>793</v>
       </c>
@@ -9578,7 +9582,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="15.75" customHeight="1">
+    <row r="305" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A305" s="24" t="s">
         <v>794</v>
       </c>
@@ -9592,7 +9596,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="15.75" customHeight="1">
+    <row r="306" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A306" s="24" t="s">
         <v>797</v>
       </c>
@@ -9609,7 +9613,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="15.75" customHeight="1">
+    <row r="307" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A307" s="23" t="s">
         <v>798</v>
       </c>
@@ -9617,7 +9621,7 @@
         <v>73878463</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="15.75" customHeight="1">
+    <row r="308" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A308" s="24" t="s">
         <v>799</v>
       </c>
@@ -9634,7 +9638,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="15.75" customHeight="1">
+    <row r="309" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A309" s="24" t="s">
         <v>801</v>
       </c>
@@ -9651,7 +9655,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="15.75" customHeight="1">
+    <row r="310" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A310" s="23" t="s">
         <v>803</v>
       </c>
@@ -9668,7 +9672,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="15.75" customHeight="1">
+    <row r="311" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A311" s="23" t="s">
         <v>805</v>
       </c>
@@ -9682,7 +9686,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="15.75" customHeight="1">
+    <row r="312" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A312" s="24" t="s">
         <v>807</v>
       </c>
@@ -9696,7 +9700,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="15.75" customHeight="1">
+    <row r="313" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A313" s="24" t="s">
         <v>809</v>
       </c>
@@ -9713,7 +9717,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="15.75" customHeight="1">
+    <row r="314" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A314" s="23" t="s">
         <v>812</v>
       </c>
@@ -9728,7 +9732,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="15.75" customHeight="1">
+    <row r="315" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A315" s="23" t="s">
         <v>814</v>
       </c>
@@ -9745,7 +9749,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="15.75" customHeight="1">
+    <row r="316" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A316" s="23" t="s">
         <v>816</v>
       </c>
@@ -9759,7 +9763,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="15.75" customHeight="1">
+    <row r="317" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A317" s="24" t="s">
         <v>819</v>
       </c>
@@ -9770,7 +9774,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="15.75" customHeight="1">
+    <row r="318" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A318" s="24" t="s">
         <v>820</v>
       </c>
@@ -9784,7 +9788,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="15.75" customHeight="1">
+    <row r="319" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A319" s="24" t="s">
         <v>822</v>
       </c>
@@ -9801,7 +9805,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="15.75" customHeight="1">
+    <row r="320" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A320" s="23" t="s">
         <v>824</v>
       </c>
@@ -9818,7 +9822,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="15.75" customHeight="1">
+    <row r="321" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A321" s="23" t="s">
         <v>827</v>
       </c>
@@ -9835,7 +9839,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="15.75" customHeight="1">
+    <row r="322" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A322" s="34" t="s">
         <v>829</v>
       </c>
@@ -9852,7 +9856,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="15.75" customHeight="1">
+    <row r="323" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A323" s="24" t="s">
         <v>832</v>
       </c>
@@ -9869,7 +9873,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="15.75" customHeight="1">
+    <row r="324" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A324" s="24" t="s">
         <v>834</v>
       </c>
@@ -9886,7 +9890,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="15.75" customHeight="1">
+    <row r="325" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A325" s="34" t="s">
         <v>837</v>
       </c>
@@ -9903,7 +9907,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="15.75" customHeight="1">
+    <row r="326" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A326" s="24" t="s">
         <v>840</v>
       </c>
@@ -9920,7 +9924,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="15.75" customHeight="1">
+    <row r="327" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A327" s="24" t="s">
         <v>842</v>
       </c>
@@ -9937,7 +9941,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="15.75" customHeight="1">
+    <row r="328" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A328" s="24" t="s">
         <v>845</v>
       </c>
@@ -9954,7 +9958,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="15.75" customHeight="1">
+    <row r="329" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A329" s="24" t="s">
         <v>848</v>
       </c>
@@ -9971,7 +9975,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="15.75" customHeight="1">
+    <row r="330" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A330" s="24" t="s">
         <v>850</v>
       </c>
@@ -9988,7 +9992,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="15.75" customHeight="1">
+    <row r="331" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A331" s="24" t="s">
         <v>853</v>
       </c>
@@ -10005,7 +10009,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="15.75" customHeight="1">
+    <row r="332" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A332" s="24" t="s">
         <v>856</v>
       </c>
@@ -10022,7 +10026,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="15.75" customHeight="1">
+    <row r="333" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A333" s="24" t="s">
         <v>784</v>
       </c>
@@ -10707,6 +10711,22 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="A1:F333">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Maestría en ciencias con mención en el proyectos de inversión"/>
+        <filter val="Maestría en Ciencias con mención en proyectos de inversión"/>
+        <filter val="MAESTRÍA EN ciencias con mención en proyectos "/>
+        <filter val="Maestría en gerencia de proyectos"/>
+        <filter val="Maestria en gestion de proyectos"/>
+        <filter val="maestria en proyectos de inversion"/>
+        <filter val="Maestría en proyectos de inversión"/>
+        <filter val="Maestría en Proyectos o inteligencia artificial en construcción o gerencia de proyectos"/>
+        <filter val="Mestrias en Proyectos de inversion"/>
+        <filter val="PROYECTOS DE INVERSIÓN"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="F148" r:id="rId1"/>
     <hyperlink ref="F152" r:id="rId2"/>
